--- a/PLC/S7-1x00/Core/ADT/priority-queue/EPriorityQueueStatus-v1.0.xlsx
+++ b/PLC/S7-1x00/Core/ADT/priority-queue/EPriorityQueueStatus-v1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.2\work\PlcFramework\plc\s7-1x00\core\adt\priority-queue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.2\work\PlcFramework\code\plc\s7-1x00\core\adt\priority-queue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE38629-A5CB-47D1-980F-27AB8B1B5A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14E87A3-8E82-422A-8403-AC4ED7FFD167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
